--- a/docs/画面項目定義書/snapshot_management.xlsx
+++ b/docs/画面項目定義書/snapshot_management.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562E173C-A7A0-4677-A349-CA07C0F592BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE5588-723B-4B9F-8522-542ACF2501D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>日本工学院</t>
   </si>
@@ -90,38 +90,71 @@
     <t>日付形式</t>
   </si>
   <si>
-    <t>選択されたスナップショットを削除する処理を実行</t>
-    <rPh sb="22" eb="23">
-      <t>コウ</t>
+    <t>snapshot_management</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スナップショットエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スナップショットエンティティより
+表示対象の仮想マシン名を取得し、
+繰り返し表示する</t>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>選択されたスナップショットを復元する処理を実行</t>
+    <t>スナップショットエンティティより
+表示対象のスナップショットの保存状態を取得し、
+繰り返し表示する</t>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>押下でスナップショット作成画面へ遷移</t>
+    <t>スナップショットエンティティより
+作成日時を取得し、
+繰り返し表示する</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>スナップショットの保存状態を表示</t>
+    <t>スナップショットエンティティより
+スナップショットの識別名を取得し、
+繰り返し表示する</t>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>対象の仮想マシン名を表示</t>
+    <t>選択されたスナップショットを削除する</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>スナップショットの作成日時を表示</t>
+    <t>スナップショットから復元モーダルへ遷移</t>
+    <rPh sb="10" eb="12">
+      <t>フクゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>スナップショットの識別名を表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>snapshot_management</t>
+    <t>スナップショット作成モーダルへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -989,21 +1022,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
     <col min="6" max="6" width="40.90625" customWidth="1"/>
     <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1047,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.25">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1023,7 +1056,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1032,7 +1065,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.25">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1041,7 +1074,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1054,9 +1087,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.25">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="38" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1065,7 +1098,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.25">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1074,7 +1107,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.5">
+    <row r="9" spans="1:7" ht="36">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1108,13 +1141,15 @@
         <v>17</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1125,15 +1160,17 @@
         <v>17</v>
       </c>
       <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="33" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1144,13 +1181,15 @@
         <v>17</v>
       </c>
       <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1161,13 +1200,15 @@
         <v>17</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.25">
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1181,10 +1222,10 @@
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1198,10 +1239,10 @@
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1215,10 +1256,10 @@
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1229,7 +1270,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1240,7 +1281,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1251,7 +1292,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25">
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1262,7 +1303,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1273,7 +1314,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1284,7 +1325,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1295,7 +1336,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1306,7 +1347,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1317,7 +1358,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1328,7 +1369,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1337,7 +1378,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1346,7 +1387,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1355,7 +1396,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>

--- a/docs/画面項目定義書/snapshot_management.xlsx
+++ b/docs/画面項目定義書/snapshot_management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE5588-723B-4B9F-8522-542ACF2501D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07214352-49BB-48A6-B87C-0B8E52257824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="4005" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>日本工学院</t>
   </si>
@@ -140,21 +140,64 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>選択されたスナップショットを削除する</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>スナップショットから復元モーダルへ遷移</t>
-    <rPh sb="10" eb="12">
-      <t>フクゲン</t>
+    <t>スナップショット作成モーダルへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップを表示させる</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ポップアップを非表示にする</t>
+    <rPh sb="7" eb="10">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スナップショットを削除する。ポップアップを非表示にする</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スナップショットからmo_snapshot_restoreへ遷移</t>
+    <rPh sb="30" eb="32">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>スナップショット作成モーダルへ遷移</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1022,21 +1065,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1090,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1056,7 +1099,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1065,7 +1108,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1074,7 +1117,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1130,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="38" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1141,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1107,7 +1150,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1222,10 +1265,10 @@
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1239,10 +1282,10 @@
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1256,43 +1299,61 @@
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" ht="13">
+      <c r="G17" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" ht="13">
+      <c r="G18" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1303,7 +1364,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1314,7 +1375,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1325,7 +1386,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1336,7 +1397,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1347,7 +1408,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1358,7 +1419,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1369,7 +1430,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1378,7 +1439,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1387,7 +1448,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1396,7 +1457,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
